--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006199</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛同锦研究精选混合</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.20</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>002085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>长盛互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001183</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方利淘灵活配置混合A</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.12</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>001892</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>长盛新兴成长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001504</t>
+          <t>006199</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方利淘灵活配置混合C</t>
+          <t>长盛同锦研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.12</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001892</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>005262</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>鑫元欣享灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002085</t>
+          <t>001183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长盛互联网+主题灵活配置混合</t>
+          <t>南方利淘灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>005263</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>鑫元欣享灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>73.55</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002862</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金信量化精选灵活配置混合</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>56.48</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005262</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鑫元欣享灵活配置混合A</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.15</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005263</t>
+          <t>002862</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鑫元欣享灵活配置混合C</t>
+          <t>金信量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>86.15</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>001504</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>南方利淘灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004774</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富添福吉祥混合</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005262</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鑫元欣享灵活配置混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005263</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鑫元欣享灵活配置混合C</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>005262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>鑫元欣享灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010738</t>
+          <t>005263</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合A</t>
+          <t>鑫元欣享灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>69.70</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010739</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合C</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>69.70</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>004774</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>汇添富添福吉祥混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>010739</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>大成优选升级一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>80.52</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1660,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1668,7 +1669,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -1684,6 +1684,404 @@
       </c>
       <c r="H17" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2087,4 +2088,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2296,4 +2297,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -2321,12 +2321,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2305,7 +2306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2316,17 +2317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2336,14 +2357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2352,14 +2395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.74</v>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2368,14 +2433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.4</v>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2384,13 +2471,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,589 +455,1121 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2120</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001276</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1171</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002085</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>73.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001892</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006199</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛同锦研究精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001825</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005262</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001183</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005263</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009733</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009734</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>创金合信港股通大消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002862</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金信量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>56.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001504</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方利淘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.12</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1694,487 +2226,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.50</t>
+          <t>83.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3100</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001277</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1499</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1462</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005262</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>69.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>70.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005263</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鑫元欣享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010738</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1782</t>
+          <t>0.2120</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2182,75 +2316,75 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.14</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1441</t>
+          <t>0.1171</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001277</t>
+          <t>002085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时国企改革主题股票</t>
+          <t>长盛互联网+主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>87.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1162</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2258,359 +2392,151 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010739</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69.81</t>
+          <t>73.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010296</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家互联互通中国优势量化策略混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2356</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010690</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0473</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>350009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010297</t>
+          <t>001892</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合C</t>
+          <t>长盛新兴成长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>87.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010691</t>
+          <t>006199</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
+          <t>长盛同锦研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>90.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2618,198 +2544,272 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002043</t>
+          <t>005262</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天治研究驱动混合C</t>
+          <t>鑫元欣享灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>86.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>001183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>南方利淘灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.45</t>
+          <t>24.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010296</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合A</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2356</t>
+          <t>1.0947</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009140</t>
+          <t>011201</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢竞争力精选混合</t>
+          <t>财通优势行业轮动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.3361</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010690</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
+          <t>财通科创主题灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.2700</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>350009</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天治研究驱动混合A</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010297</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合C</t>
+          <t>财通福盛多策略混合（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010691</t>
+          <t>009140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
+          <t>永赢竞争力精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -850,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -888,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002043</t>
+          <t>011202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天治研究驱动混合C</t>
+          <t>财通优势行业轮动混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -926,12 +943,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>014628</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>财通福盛多策略混合（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -941,21 +958,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.45</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -964,6 +981,404 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1171,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1569,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2226,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688526-科前生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.41</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.74</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>011201</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通优势行业轮动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0947</t>
+          <t>0.6034</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011201</t>
+          <t>014029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通优势行业轮动混合A</t>
+          <t>浦银安盛红利精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>71.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3361</t>
+          <t>0.3365</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -715,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通科创主题灵活配置混合（LOF）</t>
+          <t>浦银安盛红利精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>71.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2700</t>
+          <t>0.2820</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008840</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦大消费混合A</t>
+          <t>财通科创主题灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.2749</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）A</t>
+          <t>工银农业产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.2599</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -829,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009140</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢竞争力精选混合</t>
+          <t>浦银安盛增长动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.1534</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008841</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦大消费混合C</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011202</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通优势行业轮动混合C</t>
+          <t>财通福盛多策略混合（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>87.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.1374</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -943,36 +960,562 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014547</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通医药鑫选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014548</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通医药鑫选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>014628</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>财通福盛多策略混合（LOF）C</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1037,36 +1580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010296</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合A</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2356</t>
+          <t>1.0947</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1075,36 +1618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009140</t>
+          <t>011201</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢竞争力精选混合</t>
+          <t>财通优势行业轮动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.3361</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1113,36 +1656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010690</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
+          <t>财通科创主题灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.2700</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1151,36 +1694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>350009</t>
+          <t>008840</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天治研究驱动混合A</t>
+          <t>德邦大消费混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1189,36 +1732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010297</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合C</t>
+          <t>财通福盛多策略混合（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1227,36 +1770,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010691</t>
+          <t>009140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
+          <t>永赢竞争力精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1265,36 +1808,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>008841</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>德邦大消费混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.51</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1303,36 +1846,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002043</t>
+          <t>011202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天治研究驱动混合C</t>
+          <t>财通优势行业轮动混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1341,12 +1884,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>014628</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>财通福盛多策略混合（LOF）C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1356,21 +1899,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.45</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1379,6 +1922,404 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1586,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +2925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2641,7 +3582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
